--- a/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDF351-A540-0142-9FCE-31569DE4DD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D74DEC-B809-DC49-BC4C-BDF03EF3F16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Station ID</t>
   </si>
@@ -40,188 +54,191 @@
     <t>KAIA</t>
   </si>
   <si>
-    <t>ALLIANCE ARPT NE</t>
-  </si>
-  <si>
     <t>KBFF</t>
   </si>
   <si>
-    <t>SCOTTSBLUFF ARPT NE</t>
-  </si>
-  <si>
     <t>KSIB</t>
   </si>
   <si>
-    <t>SIBLEY PEAK WY</t>
-  </si>
-  <si>
     <t>KTOR</t>
   </si>
   <si>
-    <t>TORRINGTON ARPT WY</t>
-  </si>
-  <si>
     <t>MUNS</t>
   </si>
   <si>
-    <t>MUNICH SCHOOL ND</t>
-  </si>
-  <si>
     <t>K2WX</t>
   </si>
   <si>
-    <t>BUFFALO SD</t>
-  </si>
-  <si>
     <t>K4DG</t>
   </si>
   <si>
-    <t>DOUGLAS WY</t>
-  </si>
-  <si>
     <t>K4MC</t>
   </si>
   <si>
-    <t>MOORCROFT WY</t>
-  </si>
-  <si>
     <t>KBPP</t>
   </si>
   <si>
-    <t>BOWMAN ARPT ND</t>
-  </si>
-  <si>
     <t>KCDR</t>
   </si>
   <si>
-    <t>CHADRON AIRPORT NE</t>
-  </si>
-  <si>
     <t>KD07</t>
   </si>
   <si>
-    <t>FAITH AIRPORT SD</t>
-  </si>
-  <si>
     <t>KDGW</t>
   </si>
   <si>
-    <t>CONVERSE CO ARPT WY</t>
-  </si>
-  <si>
     <t>KGCC</t>
   </si>
   <si>
-    <t>GILLETTE  ARPT WY</t>
-  </si>
-  <si>
     <t>KGRN</t>
   </si>
   <si>
-    <t>GORDON MUNI NE</t>
-  </si>
-  <si>
     <t>KHEI</t>
   </si>
   <si>
-    <t>HETTINGER ARPT ND</t>
-  </si>
-  <si>
     <t>KIEN</t>
   </si>
   <si>
-    <t>PINE RIDGE AIRPORT SD</t>
-  </si>
-  <si>
     <t>KLEM</t>
   </si>
   <si>
-    <t>LEMMON ARPT SD</t>
-  </si>
-  <si>
     <t>KMIS</t>
   </si>
   <si>
-    <t>MISSION SD</t>
-  </si>
-  <si>
     <t>KPHP</t>
   </si>
   <si>
-    <t>PHILIP AIRPORT SD</t>
-  </si>
-  <si>
     <t>KPIR</t>
   </si>
   <si>
-    <t>PIERRE ARPT SD</t>
-  </si>
-  <si>
     <t>KVTN</t>
   </si>
   <si>
-    <t>MILLER FIELD ARPT NE</t>
-  </si>
-  <si>
     <t>KY22</t>
   </si>
   <si>
-    <t>LEMMON SD</t>
-  </si>
-  <si>
     <t>KCUT</t>
   </si>
   <si>
-    <t>CUSTER AIRPORT SD</t>
-  </si>
-  <si>
     <t>KEFC</t>
   </si>
   <si>
-    <t>BELLE FOURCHE MUNI SD</t>
-  </si>
-  <si>
     <t>KRAP</t>
   </si>
   <si>
-    <t>RAPID CITY ARPT SD</t>
-  </si>
-  <si>
     <t>KRCA</t>
   </si>
   <si>
-    <t>ELLSWORTH AFB SD</t>
-  </si>
-  <si>
     <t>KSPF</t>
   </si>
   <si>
-    <t>CLYDE ICE FIELD SD</t>
-  </si>
-  <si>
     <t>KUDX</t>
   </si>
   <si>
-    <t>RAPID CITY NEXRAD SD</t>
-  </si>
-  <si>
     <t>KUNR</t>
   </si>
   <si>
-    <t>RAPID CITY NWS SD</t>
-  </si>
-  <si>
     <t>KW43</t>
   </si>
   <si>
-    <t>HULETT AIRPORT WY</t>
+    <t>Buffalo, SD</t>
+  </si>
+  <si>
+    <t>Douglas, WY</t>
+  </si>
+  <si>
+    <t>Moorcroft, WY</t>
+  </si>
+  <si>
+    <t>Alliance Arpt, NE</t>
+  </si>
+  <si>
+    <t>Scottsbluff Arpt, NE</t>
+  </si>
+  <si>
+    <t>Bowman Arpt, ND</t>
+  </si>
+  <si>
+    <t>Chadron Airport, NE</t>
+  </si>
+  <si>
+    <t>Custer Airport, SD</t>
+  </si>
+  <si>
+    <t>Faith Airport, SD</t>
+  </si>
+  <si>
+    <t>Converse Co Arpt, WY</t>
+  </si>
+  <si>
+    <t>Belle Fourche Muni, SD</t>
+  </si>
+  <si>
+    <t>Gillette Arpt, WY</t>
+  </si>
+  <si>
+    <t>Gordon Muni, NE</t>
+  </si>
+  <si>
+    <t>Hettinger Arpt, ND</t>
+  </si>
+  <si>
+    <t>Pine Ridge Airport, SD</t>
+  </si>
+  <si>
+    <t>Lemmon Arpt, SD</t>
+  </si>
+  <si>
+    <t>Mission, SD</t>
+  </si>
+  <si>
+    <t>Philip Airport, SD</t>
+  </si>
+  <si>
+    <t>Pierre Arpt, SD</t>
+  </si>
+  <si>
+    <t>Rapid City Arpt, SD</t>
+  </si>
+  <si>
+    <t>Ellsworth Afb, SD</t>
+  </si>
+  <si>
+    <t>Sibley Peak, WY</t>
+  </si>
+  <si>
+    <t>Clyde Ice Field, SD</t>
+  </si>
+  <si>
+    <t>Torrington Arpt, WY</t>
+  </si>
+  <si>
+    <t>Rapid City, NEXRAD, SD</t>
+  </si>
+  <si>
+    <t>Rapid City NWS, SD</t>
+  </si>
+  <si>
+    <t>Miller Field Arpt, NE</t>
+  </si>
+  <si>
+    <t>Hulett Airport, WY</t>
+  </si>
+  <si>
+    <t>Lemmon, SD</t>
+  </si>
+  <si>
+    <t>Munich School, ND</t>
+  </si>
+  <si>
+    <t>Row Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +250,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,6 +617,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,625 +638,610 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>42.05</v>
+        <v>43.732999999999997</v>
       </c>
       <c r="F2">
-        <v>-102.8</v>
+        <v>-103.611</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>41.871000000000002</v>
+        <v>44.734000000000002</v>
       </c>
       <c r="F3">
-        <v>-103.593</v>
+        <v>-103.86199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>42.433</v>
+        <v>44.042999999999999</v>
       </c>
       <c r="F4">
-        <v>-105.033</v>
+        <v>-103.054</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>42.061</v>
+        <v>44.133000000000003</v>
       </c>
       <c r="F5">
-        <v>-104.158</v>
+        <v>-103.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>48.666699999999999</v>
+        <v>44.482999999999997</v>
       </c>
       <c r="F6">
-        <v>-98.834999999999994</v>
+        <v>-103.783</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>45.603999999999999</v>
+        <v>44.133000000000003</v>
       </c>
       <c r="F7">
-        <v>-103.54600000000001</v>
+        <v>-102.833</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>42.75</v>
+        <v>44.072699999999998</v>
       </c>
       <c r="F8">
-        <v>-105.383</v>
+        <v>-103.211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>44.267000000000003</v>
+        <v>44.6629</v>
       </c>
       <c r="F9">
-        <v>-104.95</v>
+        <v>-104.568</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>46.186999999999998</v>
+        <v>45.603999999999999</v>
       </c>
       <c r="F10">
-        <v>-103.428</v>
+        <v>-103.54600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>42.837000000000003</v>
+        <v>42.75</v>
       </c>
       <c r="F11">
-        <v>-103.098</v>
+        <v>-105.383</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>45.031999999999996</v>
+        <v>44.267000000000003</v>
       </c>
       <c r="F12">
-        <v>-102.01900000000001</v>
+        <v>-104.95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>42.795999999999999</v>
+        <v>46.186999999999998</v>
       </c>
       <c r="F13">
-        <v>-105.38</v>
+        <v>-103.428</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>44.338999999999999</v>
+        <v>42.837000000000003</v>
       </c>
       <c r="F14">
-        <v>-105.542</v>
+        <v>-103.098</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E15">
-        <v>42.805999999999997</v>
+        <v>45.031999999999996</v>
       </c>
       <c r="F15">
-        <v>-102.175</v>
+        <v>-102.01900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>34</v>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>46.014000000000003</v>
+        <v>42.795999999999999</v>
       </c>
       <c r="F16">
-        <v>-102.655</v>
+        <v>-105.38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>46.017000000000003</v>
+        <v>44.338999999999999</v>
       </c>
       <c r="F17">
-        <v>-102.65</v>
+        <v>-105.542</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E18">
-        <v>43.021000000000001</v>
+        <v>42.805999999999997</v>
       </c>
       <c r="F18">
-        <v>-102.518</v>
+        <v>-102.175</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>38</v>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>45.918999999999997</v>
+        <v>46.017000000000003</v>
       </c>
       <c r="F19">
-        <v>-102.10599999999999</v>
+        <v>-102.65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E20">
-        <v>43.033000000000001</v>
+        <v>43.021000000000001</v>
       </c>
       <c r="F20">
-        <v>-100.617</v>
+        <v>-102.518</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>42</v>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>44.051000000000002</v>
+        <v>45.918999999999997</v>
       </c>
       <c r="F21">
-        <v>-101.601</v>
+        <v>-102.10599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>44</v>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>44.381</v>
+        <v>43.033000000000001</v>
       </c>
       <c r="F22">
-        <v>-100.286</v>
+        <v>-100.617</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>42.878</v>
+        <v>44.051000000000002</v>
       </c>
       <c r="F23">
-        <v>-100.55</v>
+        <v>-101.601</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E24">
-        <v>45.933</v>
+        <v>44.381</v>
       </c>
       <c r="F24">
-        <v>-102.167</v>
+        <v>-100.286</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E25">
-        <v>43.732999999999997</v>
+        <v>42.878</v>
       </c>
       <c r="F25">
-        <v>-103.611</v>
+        <v>-100.55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E26">
-        <v>44.734000000000002</v>
+        <v>45.933</v>
       </c>
       <c r="F26">
-        <v>-103.86199999999999</v>
+        <v>-102.167</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>44.042999999999999</v>
+        <v>42.05</v>
       </c>
       <c r="F27">
-        <v>-103.054</v>
+        <v>-102.8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>44.133000000000003</v>
+        <v>41.871000000000002</v>
       </c>
       <c r="F28">
-        <v>-103.1</v>
+        <v>-103.593</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>44.482999999999997</v>
+        <v>42.433</v>
       </c>
       <c r="F29">
-        <v>-103.783</v>
+        <v>-105.033</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E30">
-        <v>44.133000000000003</v>
+        <v>42.061</v>
       </c>
       <c r="F30">
-        <v>-102.833</v>
+        <v>-104.158</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E31">
-        <v>44.072699999999998</v>
+        <v>48.666699999999999</v>
       </c>
       <c r="F31">
-        <v>-103.211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32">
-        <v>44.6629</v>
-      </c>
-      <c r="F32">
-        <v>-104.568</v>
+        <v>-98.834999999999994</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
+      <sortCondition descending="1" ref="C1:C32"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D74DEC-B809-DC49-BC4C-BDF03EF3F16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D62C13-FABF-C042-BF09-80EA7FBD4956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14740" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Chadron Airport, NE</t>
   </si>
   <si>
-    <t>Custer Airport, SD</t>
-  </si>
-  <si>
     <t>Faith Airport, SD</t>
   </si>
   <si>
@@ -183,27 +180,18 @@
     <t>Hettinger Arpt, ND</t>
   </si>
   <si>
-    <t>Pine Ridge Airport, SD</t>
-  </si>
-  <si>
     <t>Lemmon Arpt, SD</t>
   </si>
   <si>
     <t>Mission, SD</t>
   </si>
   <si>
-    <t>Philip Airport, SD</t>
-  </si>
-  <si>
     <t>Pierre Arpt, SD</t>
   </si>
   <si>
     <t>Rapid City Arpt, SD</t>
   </si>
   <si>
-    <t>Ellsworth Afb, SD</t>
-  </si>
-  <si>
     <t>Sibley Peak, WY</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>Miller Field Arpt, NE</t>
   </si>
   <si>
-    <t>Hulett Airport, WY</t>
-  </si>
-  <si>
     <t>Lemmon, SD</t>
   </si>
   <si>
@@ -232,6 +217,21 @@
   </si>
   <si>
     <t>Row Label</t>
+  </si>
+  <si>
+    <t>Custer Arpt, SD</t>
+  </si>
+  <si>
+    <t>Ellsworth AFB, SD</t>
+  </si>
+  <si>
+    <t>Hulett Arpt, WY</t>
+  </si>
+  <si>
+    <t>Pine Ridge Arpt, SD</t>
+  </si>
+  <si>
+    <t>Philip Arpt, SD</t>
   </si>
 </sst>
 </file>
@@ -250,6 +250,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -606,7 +607,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -647,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>43.732999999999997</v>
@@ -667,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>44.734000000000002</v>
@@ -687,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>44.042999999999999</v>
@@ -707,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>44.133000000000003</v>
@@ -727,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>44.482999999999997</v>
@@ -747,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>44.133000000000003</v>
@@ -767,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>44.072699999999998</v>
@@ -787,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>44.6629</v>
@@ -907,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>45.031999999999996</v>
@@ -927,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>42.795999999999999</v>
@@ -947,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>44.338999999999999</v>
@@ -967,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>42.805999999999997</v>
@@ -987,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>46.017000000000003</v>
@@ -1007,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>43.021000000000001</v>
@@ -1027,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>45.918999999999997</v>
@@ -1047,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>43.033000000000001</v>
@@ -1067,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>44.051000000000002</v>
@@ -1087,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>44.381</v>
@@ -1107,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>42.878</v>
@@ -1127,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>45.933</v>
@@ -1187,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>42.433</v>
@@ -1207,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>42.061</v>
@@ -1227,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>48.666699999999999</v>

--- a/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D62C13-FABF-C042-BF09-80EA7FBD4956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B164D802-C55A-C24B-802D-BC5AA1AEE34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Station ID</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Philip Arpt, SD</t>
+  </si>
+  <si>
+    <t>Distane from UNR</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,17 +293,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,9 +632,10 @@
     <col min="1" max="2" width="30.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -636,48 +654,57 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>43.732999999999997</v>
+        <v>44.072699999999998</v>
       </c>
       <c r="F2">
-        <v>-103.611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-103.211</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>44.734000000000002</v>
+        <v>44.133000000000003</v>
       </c>
       <c r="F3">
-        <v>-103.86199999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-103.1</v>
+      </c>
+      <c r="G3">
+        <v>1.5957090000001551E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -696,328 +723,379 @@
       <c r="F4">
         <v>-103.054</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>2.5531089999998792E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>44.133000000000003</v>
       </c>
       <c r="F5">
-        <v>-103.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-102.833</v>
+      </c>
+      <c r="G5">
+        <v>0.14652009000000071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>44.482999999999997</v>
+        <v>43.732999999999997</v>
       </c>
       <c r="F6">
-        <v>-103.783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-103.611</v>
+      </c>
+      <c r="G6">
+        <v>0.27539609000000492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>44.133000000000003</v>
+        <v>44.482999999999997</v>
       </c>
       <c r="F7">
-        <v>-102.833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-103.783</v>
+      </c>
+      <c r="G7">
+        <v>0.4955300900000027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>44.072699999999998</v>
+        <v>44.734000000000002</v>
       </c>
       <c r="F8">
-        <v>-103.211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-103.86199999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.86111869000000074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>42.837000000000003</v>
+      </c>
+      <c r="F9">
+        <v>-103.098</v>
+      </c>
+      <c r="G9">
+        <v>1.5397234899999857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>43.021000000000001</v>
+      </c>
+      <c r="F10">
+        <v>-102.518</v>
+      </c>
+      <c r="G10">
+        <v>1.5863218899999902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>44.6629</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>-104.568</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="G11">
+        <v>2.1897850400000016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>45.031999999999996</v>
+      </c>
+      <c r="F12">
+        <v>-102.01900000000001</v>
+      </c>
+      <c r="G12">
+        <v>2.3411204899999816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>45.603999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>-103.54600000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="G13">
+        <v>2.4571046900000106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>44.051000000000002</v>
+      </c>
+      <c r="F14">
+        <v>-101.601</v>
+      </c>
+      <c r="G14">
+        <v>2.592570889999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>42.805999999999997</v>
+      </c>
+      <c r="F15">
+        <v>-102.175</v>
+      </c>
+      <c r="G15">
+        <v>2.6778248900000032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>44.267000000000003</v>
+      </c>
+      <c r="F16">
+        <v>-104.95</v>
+      </c>
+      <c r="G16">
+        <v>3.0618734900000173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>46.017000000000003</v>
+      </c>
+      <c r="F17">
+        <v>-102.65</v>
+      </c>
+      <c r="G17">
+        <v>4.0950234900000133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>42.75</v>
-      </c>
-      <c r="F11">
-        <v>-105.383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>44.267000000000003</v>
-      </c>
-      <c r="F12">
-        <v>-104.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>42.05</v>
+      </c>
+      <c r="F18">
+        <v>-102.8</v>
+      </c>
+      <c r="G18">
+        <v>4.2602362900000026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="E19">
         <v>46.186999999999998</v>
       </c>
-      <c r="F13">
+      <c r="F19">
         <v>-103.428</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>42.837000000000003</v>
-      </c>
-      <c r="F14">
-        <v>-103.098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <v>45.031999999999996</v>
-      </c>
-      <c r="F15">
-        <v>-102.01900000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16">
-        <v>42.795999999999999</v>
-      </c>
-      <c r="F16">
-        <v>-105.38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17">
-        <v>44.338999999999999</v>
-      </c>
-      <c r="F17">
-        <v>-105.542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>42.805999999999997</v>
-      </c>
-      <c r="F18">
-        <v>-102.175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>46.017000000000003</v>
-      </c>
-      <c r="F19">
-        <v>-102.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>4.5173534899999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>43.021000000000001</v>
+        <v>45.933</v>
       </c>
       <c r="F20">
-        <v>-102.518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-102.167</v>
+      </c>
+      <c r="G20">
+        <v>4.5506520900000016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1036,188 +1114,218 @@
       <c r="F21">
         <v>-102.10599999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>4.6298486900000064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <v>42.061</v>
+      </c>
+      <c r="F22">
+        <v>-104.158</v>
+      </c>
+      <c r="G22">
+        <v>4.9437458899999962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>41.871000000000002</v>
+      </c>
+      <c r="F23">
+        <v>-103.593</v>
+      </c>
+      <c r="G23">
+        <v>4.9934068899999833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>44.338999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-105.542</v>
+      </c>
+      <c r="G24">
+        <v>5.5044766900000148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>42.433</v>
+      </c>
+      <c r="F25">
+        <v>-105.033</v>
+      </c>
+      <c r="G25">
+        <v>6.0083000900000023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>42.795999999999999</v>
+      </c>
+      <c r="F26">
+        <v>-105.38</v>
+      </c>
+      <c r="G26">
+        <v>6.3345238899999821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>42.75</v>
+      </c>
+      <c r="F27">
+        <v>-105.383</v>
+      </c>
+      <c r="G27">
+        <v>6.4671192899999808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E22">
+      <c r="E28">
         <v>43.033000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F28">
         <v>-100.617</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23">
-        <v>44.051000000000002</v>
-      </c>
-      <c r="F23">
-        <v>-101.601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="G28">
+        <v>7.8098120899999612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>42.878</v>
+      </c>
+      <c r="F29">
+        <v>-100.55</v>
+      </c>
+      <c r="G29">
+        <v>8.5082290900000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E24">
+      <c r="E30">
         <v>44.381</v>
       </c>
-      <c r="F24">
+      <c r="F30">
         <v>-100.286</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25">
-        <v>42.878</v>
-      </c>
-      <c r="F25">
-        <v>-100.55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26">
-        <v>45.933</v>
-      </c>
-      <c r="F26">
-        <v>-102.167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>42.05</v>
-      </c>
-      <c r="F27">
-        <v>-102.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <v>41.871000000000002</v>
-      </c>
-      <c r="F28">
-        <v>-103.593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29">
-        <v>42.433</v>
-      </c>
-      <c r="F29">
-        <v>-105.033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30">
-        <v>42.061</v>
-      </c>
-      <c r="F30">
-        <v>-104.158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>8.6506738899999842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1236,11 +1344,14 @@
       <c r="F31">
         <v>-98.834999999999994</v>
       </c>
+      <c r="G31">
+        <v>40.254212000000102</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
-      <sortCondition descending="1" ref="C1:C32"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+      <sortCondition ref="G1:G31"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B164D802-C55A-C24B-802D-BC5AA1AEE34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFBD062-6C33-7D4E-8A5A-A993133F515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,14 +234,14 @@
     <t>Philip Arpt, SD</t>
   </si>
   <si>
-    <t>Distane from UNR</t>
+    <t>Distane from SDMines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -316,9 +323,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +632,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -632,7 +640,7 @@
     <col min="1" max="2" width="30.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,7 +666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -677,11 +685,11 @@
       <c r="F2">
         <v>-103.211</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <v>0.44024747661156699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -700,11 +708,11 @@
       <c r="F3">
         <v>-103.1</v>
       </c>
-      <c r="G3">
-        <v>1.5957090000001551E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <v>10.688774683141601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -723,11 +731,11 @@
       <c r="F4">
         <v>-103.054</v>
       </c>
-      <c r="G4">
-        <v>2.5531089999998792E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <v>12.624086669234799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -746,11 +754,11 @@
       <c r="F5">
         <v>-102.833</v>
       </c>
-      <c r="G5">
-        <v>0.14652009000000071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <v>30.4844243744819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -769,11 +777,11 @@
       <c r="F6">
         <v>-103.611</v>
       </c>
-      <c r="G6">
-        <v>0.27539609000000492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <v>49.927563605199097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>23</v>
       </c>
@@ -792,11 +800,11 @@
       <c r="F7">
         <v>-103.783</v>
       </c>
-      <c r="G7">
-        <v>0.4955300900000027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <v>64.629982737682198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -815,149 +823,149 @@
       <c r="F8">
         <v>-103.86199999999999</v>
       </c>
-      <c r="G8">
-        <v>0.86111869000000074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="4">
+        <v>89.994937722499401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>44.6629</v>
+      </c>
+      <c r="F9">
+        <v>-104.568</v>
+      </c>
+      <c r="G9" s="4">
+        <v>126.519155018898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>44.051000000000002</v>
+      </c>
+      <c r="F10">
+        <v>-101.601</v>
+      </c>
+      <c r="G10" s="4">
+        <v>128.259606930252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>43.021000000000001</v>
+      </c>
+      <c r="F11">
+        <v>-102.518</v>
+      </c>
+      <c r="G11" s="4">
+        <v>129.56952994696701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>42.837000000000003</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>-103.098</v>
       </c>
-      <c r="G9">
-        <v>1.5397234899999857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="G12" s="4">
+        <v>137.845928181538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>44.267000000000003</v>
+      </c>
+      <c r="F13">
+        <v>-104.95</v>
+      </c>
+      <c r="G13" s="4">
+        <v>140.74316527471001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <v>43.021000000000001</v>
-      </c>
-      <c r="F10">
-        <v>-102.518</v>
-      </c>
-      <c r="G10">
-        <v>1.5863218899999902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11">
-        <v>44.6629</v>
-      </c>
-      <c r="F11">
-        <v>-104.568</v>
-      </c>
-      <c r="G11">
-        <v>2.1897850400000016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>45.031999999999996</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>-102.01900000000001</v>
       </c>
-      <c r="G12">
-        <v>2.3411204899999816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>45.603999999999999</v>
-      </c>
-      <c r="F13">
-        <v>-103.54600000000001</v>
-      </c>
-      <c r="G13">
-        <v>2.4571046900000106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14">
-        <v>44.051000000000002</v>
-      </c>
-      <c r="F14">
-        <v>-101.601</v>
-      </c>
-      <c r="G14">
-        <v>2.592570889999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="4">
+        <v>142.08000880628899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -976,287 +984,287 @@
       <c r="F15">
         <v>-102.175</v>
       </c>
-      <c r="G15">
-        <v>2.6778248900000032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="4">
+        <v>163.745344265017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>44.267000000000003</v>
+        <v>45.603999999999999</v>
       </c>
       <c r="F16">
-        <v>-104.95</v>
-      </c>
-      <c r="G16">
-        <v>3.0618734900000173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-103.54600000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>172.20643453350701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>44.338999999999999</v>
+      </c>
+      <c r="F17">
+        <v>-105.542</v>
+      </c>
+      <c r="G17" s="4">
+        <v>188.51267235667501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>46.017000000000003</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>-102.65</v>
       </c>
-      <c r="G17">
-        <v>4.0950234900000133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="G18" s="4">
+        <v>220.39859088188999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>45.933</v>
+      </c>
+      <c r="F19">
+        <v>-102.167</v>
+      </c>
+      <c r="G19" s="4">
+        <v>222.238034808328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>45.918999999999997</v>
+      </c>
+      <c r="F20">
+        <v>-102.10599999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>222.613286981622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>42.795999999999999</v>
+      </c>
+      <c r="F21">
+        <v>-105.38</v>
+      </c>
+      <c r="G21" s="4">
+        <v>225.856416908353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>42.05</v>
-      </c>
-      <c r="F18">
-        <v>-102.8</v>
-      </c>
-      <c r="G18">
-        <v>4.2602362900000026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>46.186999999999998</v>
-      </c>
-      <c r="F19">
-        <v>-103.428</v>
-      </c>
-      <c r="G19">
-        <v>4.5173534899999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20">
-        <v>45.933</v>
-      </c>
-      <c r="F20">
-        <v>-102.167</v>
-      </c>
-      <c r="G20">
-        <v>4.5506520900000016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>45.918999999999997</v>
-      </c>
-      <c r="F21">
-        <v>-102.10599999999999</v>
-      </c>
-      <c r="G21">
-        <v>4.6298486900000064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>42.05</v>
+      </c>
+      <c r="F22">
+        <v>-102.8</v>
+      </c>
+      <c r="G22" s="4">
+        <v>227.482904000014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>42.75</v>
+      </c>
+      <c r="F23">
+        <v>-105.383</v>
+      </c>
+      <c r="G23" s="4">
+        <v>229.34578734732301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>42.433</v>
+      </c>
+      <c r="F24">
+        <v>-105.033</v>
+      </c>
+      <c r="G24" s="4">
+        <v>234.931316989593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>44.381</v>
+      </c>
+      <c r="F25">
+        <v>-100.286</v>
+      </c>
+      <c r="G25" s="4">
+        <v>235.13106135770599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>46.186999999999998</v>
+      </c>
+      <c r="F26">
+        <v>-103.428</v>
+      </c>
+      <c r="G26" s="4">
+        <v>235.57785564806699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>42.061</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>-104.158</v>
       </c>
-      <c r="G22">
-        <v>4.9437458899999962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23">
-        <v>41.871000000000002</v>
-      </c>
-      <c r="F23">
-        <v>-103.593</v>
-      </c>
-      <c r="G23">
-        <v>4.9934068899999833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>44.338999999999999</v>
-      </c>
-      <c r="F24">
-        <v>-105.542</v>
-      </c>
-      <c r="G24">
-        <v>5.5044766900000148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25">
-        <v>42.433</v>
-      </c>
-      <c r="F25">
-        <v>-105.033</v>
-      </c>
-      <c r="G25">
-        <v>6.0083000900000023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26">
-        <v>42.795999999999999</v>
-      </c>
-      <c r="F26">
-        <v>-105.38</v>
-      </c>
-      <c r="G26">
-        <v>6.3345238899999821</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27">
-        <v>42.75</v>
-      </c>
-      <c r="F27">
-        <v>-105.383</v>
-      </c>
-      <c r="G27">
-        <v>6.4671192899999808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="4">
+        <v>236.837322668903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>17</v>
       </c>
@@ -1275,57 +1283,57 @@
       <c r="F28">
         <v>-100.617</v>
       </c>
-      <c r="G28">
-        <v>7.8098120899999612</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="4">
+        <v>238.58488715181201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>41.871000000000002</v>
+      </c>
+      <c r="F29">
+        <v>-103.593</v>
+      </c>
+      <c r="G29" s="4">
+        <v>247.000180903119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>42.878</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>-100.55</v>
       </c>
-      <c r="G29">
-        <v>8.5082290900000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30">
-        <v>44.381</v>
-      </c>
-      <c r="F30">
-        <v>-100.286</v>
-      </c>
-      <c r="G30">
-        <v>8.6506738899999842</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="4">
+        <v>252.207140948887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1344,8 +1352,8 @@
       <c r="F31">
         <v>-98.834999999999994</v>
       </c>
-      <c r="G31">
-        <v>40.254212000000102</v>
+      <c r="G31" s="4">
+        <v>610.69674570044003</v>
       </c>
     </row>
   </sheetData>

--- a/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFBD062-6C33-7D4E-8A5A-A993133F515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA696F-6775-FA46-8CC2-AE2C278570AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>K4MC</t>
   </si>
   <si>
-    <t>KBPP</t>
-  </si>
-  <si>
     <t>KCDR</t>
   </si>
   <si>
@@ -235,13 +232,16 @@
   </si>
   <si>
     <t>Distane from SDMines</t>
+  </si>
+  <si>
+    <t>KBWW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +263,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -315,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -327,6 +334,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +642,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,7 +655,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -663,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -671,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>44.072699999999998</v>
@@ -694,13 +704,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>44.133000000000003</v>
@@ -717,13 +727,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>44.042999999999999</v>
@@ -740,13 +750,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>44.133000000000003</v>
@@ -763,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>43.732999999999997</v>
@@ -786,13 +796,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>44.482999999999997</v>
@@ -809,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>44.734000000000002</v>
@@ -832,13 +842,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>44.6629</v>
@@ -855,13 +865,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>44.051000000000002</v>
@@ -878,13 +888,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>43.021000000000001</v>
@@ -901,13 +911,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>42.837000000000003</v>
@@ -930,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>44.267000000000003</v>
@@ -947,13 +957,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>45.031999999999996</v>
@@ -970,13 +980,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>42.805999999999997</v>
@@ -999,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>45.603999999999999</v>
@@ -1016,13 +1026,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>44.338999999999999</v>
@@ -1039,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>46.017000000000003</v>
@@ -1062,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>45.933</v>
@@ -1085,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>45.918999999999997</v>
@@ -1108,13 +1118,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>42.795999999999999</v>
@@ -1137,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>42.05</v>
@@ -1160,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>42.75</v>
@@ -1183,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>42.433</v>
@@ -1200,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>44.381</v>
@@ -1223,19 +1233,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>46.186999999999998</v>
+        <v>46.165500000000002</v>
       </c>
       <c r="F26">
-        <v>-103.428</v>
+        <v>-103.3</v>
       </c>
       <c r="G26" s="4">
         <v>235.57785564806699</v>
@@ -1252,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>42.061</v>
@@ -1269,13 +1279,13 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>43.033000000000001</v>
@@ -1298,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>41.871000000000002</v>
@@ -1315,13 +1325,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>42.878</v>
@@ -1344,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>48.666699999999999</v>

--- a/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
+++ b/namelist_files_and_local_scripts/time_series_station_files_3_dom_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wjc/GitHub/SD_Mines_WRF_REALTIME/namelist_files_and_local_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA696F-6775-FA46-8CC2-AE2C278570AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ABE18E-62C1-3946-8A93-D2D7810C6EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2020" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Station ID</t>
   </si>
@@ -147,13 +147,55 @@
     <t>Moorcroft, WY</t>
   </si>
   <si>
-    <t>Alliance Arpt, NE</t>
-  </si>
-  <si>
-    <t>Scottsbluff Arpt, NE</t>
-  </si>
-  <si>
-    <t>Bowman Arpt, ND</t>
+    <t>Belle Fourche Muni, SD</t>
+  </si>
+  <si>
+    <t>Mission, SD</t>
+  </si>
+  <si>
+    <t>Rapid City Arpt, SD</t>
+  </si>
+  <si>
+    <t>Sibley Peak, WY</t>
+  </si>
+  <si>
+    <t>Clyde Ice Field, SD</t>
+  </si>
+  <si>
+    <t>Rapid City, NEXRAD, SD</t>
+  </si>
+  <si>
+    <t>Rapid City NWS, SD</t>
+  </si>
+  <si>
+    <t>Lemmon, SD</t>
+  </si>
+  <si>
+    <t>Munich School, ND</t>
+  </si>
+  <si>
+    <t>Row Label</t>
+  </si>
+  <si>
+    <t>Custer Arpt, SD</t>
+  </si>
+  <si>
+    <t>Ellsworth AFB, SD</t>
+  </si>
+  <si>
+    <t>Hulett Arpt, WY</t>
+  </si>
+  <si>
+    <t>Distane from SDMines</t>
+  </si>
+  <si>
+    <t>KBWW</t>
+  </si>
+  <si>
+    <t>Philip Airport, SD</t>
+  </si>
+  <si>
+    <t>Pine Ridge Airport, SD</t>
   </si>
   <si>
     <t>Chadron Airport, NE</t>
@@ -162,86 +204,140 @@
     <t>Faith Airport, SD</t>
   </si>
   <si>
-    <t>Converse Co Arpt, WY</t>
-  </si>
-  <si>
-    <t>Belle Fourche Muni, SD</t>
-  </si>
-  <si>
-    <t>Gillette Arpt, WY</t>
-  </si>
-  <si>
-    <t>Gordon Muni, NE</t>
-  </si>
-  <si>
-    <t>Hettinger Arpt, ND</t>
-  </si>
-  <si>
-    <t>Lemmon Arpt, SD</t>
-  </si>
-  <si>
-    <t>Mission, SD</t>
-  </si>
-  <si>
-    <t>Pierre Arpt, SD</t>
-  </si>
-  <si>
-    <t>Rapid City Arpt, SD</t>
-  </si>
-  <si>
-    <t>Sibley Peak, WY</t>
-  </si>
-  <si>
-    <t>Clyde Ice Field, SD</t>
-  </si>
-  <si>
-    <t>Torrington Arpt, WY</t>
-  </si>
-  <si>
-    <t>Rapid City, NEXRAD, SD</t>
-  </si>
-  <si>
-    <t>Rapid City NWS, SD</t>
-  </si>
-  <si>
-    <t>Miller Field Arpt, NE</t>
-  </si>
-  <si>
-    <t>Lemmon, SD</t>
-  </si>
-  <si>
-    <t>Munich School, ND</t>
-  </si>
-  <si>
-    <t>Row Label</t>
-  </si>
-  <si>
-    <t>Custer Arpt, SD</t>
-  </si>
-  <si>
-    <t>Ellsworth AFB, SD</t>
-  </si>
-  <si>
-    <t>Hulett Arpt, WY</t>
-  </si>
-  <si>
-    <t>Pine Ridge Arpt, SD</t>
-  </si>
-  <si>
-    <t>Philip Arpt, SD</t>
-  </si>
-  <si>
-    <t>Distane from SDMines</t>
-  </si>
-  <si>
-    <t>KBWW</t>
+    <t>Gordon Airport, NE</t>
+  </si>
+  <si>
+    <t>Gillette  Airport, WY</t>
+  </si>
+  <si>
+    <t>Hettinger Airport, ND</t>
+  </si>
+  <si>
+    <t>Lemmon Airport, SD</t>
+  </si>
+  <si>
+    <t>Converse, CO Airport, WY</t>
+  </si>
+  <si>
+    <t>Alliance Airport, NE</t>
+  </si>
+  <si>
+    <t>Bowman Airport, ND</t>
+  </si>
+  <si>
+    <t>Pierre Airport, SD</t>
+  </si>
+  <si>
+    <t>Torrington Airport, WY</t>
+  </si>
+  <si>
+    <t>Scottsbluff Airport, NE</t>
+  </si>
+  <si>
+    <t>Miller Field Airport, NE</t>
+  </si>
+  <si>
+    <t>KCYS</t>
+  </si>
+  <si>
+    <t>Cheyenne NWS, WY</t>
+  </si>
+  <si>
+    <t>KBIS</t>
+  </si>
+  <si>
+    <t>Bismark NWS, ND</t>
+  </si>
+  <si>
+    <t>KLBF</t>
+  </si>
+  <si>
+    <t>North Platte NWS, NE</t>
+  </si>
+  <si>
+    <t>KABR</t>
+  </si>
+  <si>
+    <t>Aberdeen NWS, SD</t>
+  </si>
+  <si>
+    <t>KRIW</t>
+  </si>
+  <si>
+    <t>Riverton NWS, WY</t>
+  </si>
+  <si>
+    <t>KBYZ</t>
+  </si>
+  <si>
+    <t>Billings NWS, MT</t>
+  </si>
+  <si>
+    <t>KDEN</t>
+  </si>
+  <si>
+    <t>Denver Intl Airport, CO</t>
+  </si>
+  <si>
+    <t>KBOU</t>
+  </si>
+  <si>
+    <t>Boulder NWS, CO</t>
+  </si>
+  <si>
+    <t>KFSD</t>
+  </si>
+  <si>
+    <t>Sioux Falls NWS, SD</t>
+  </si>
+  <si>
+    <t>KGGW</t>
+  </si>
+  <si>
+    <t>Glasgow NWS, MT</t>
+  </si>
+  <si>
+    <t>KGLD</t>
+  </si>
+  <si>
+    <t>Goodland NWS KS</t>
+  </si>
+  <si>
+    <t>KGID</t>
+  </si>
+  <si>
+    <t>Hastings NWS, NE</t>
+  </si>
+  <si>
+    <t>KFGF</t>
+  </si>
+  <si>
+    <t>Grand Forks NWS, ND</t>
+  </si>
+  <si>
+    <t>KOAX</t>
+  </si>
+  <si>
+    <t>Omaha-Valley NWS, NE</t>
+  </si>
+  <si>
+    <t>KGJT</t>
+  </si>
+  <si>
+    <t>Grand Junction NWS, CO</t>
+  </si>
+  <si>
+    <t>KTOP</t>
+  </si>
+  <si>
+    <t>Topeka NWS, KS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +359,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -334,9 +423,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -673,12 +759,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -687,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>44.072699999999998</v>
@@ -701,7 +787,7 @@
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -710,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>44.133000000000003</v>
@@ -724,7 +810,7 @@
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -733,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>44.042999999999999</v>
@@ -747,7 +833,7 @@
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -756,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>44.133000000000003</v>
@@ -770,7 +856,7 @@
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -779,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>43.732999999999997</v>
@@ -793,7 +879,7 @@
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -802,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>44.482999999999997</v>
@@ -816,7 +902,7 @@
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -825,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>44.734000000000002</v>
@@ -839,7 +925,7 @@
     </row>
     <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -848,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>44.6629</v>
@@ -860,9 +946,9 @@
         <v>126.519155018898</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -870,8 +956,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
       <c r="E10">
         <v>44.051000000000002</v>
@@ -879,13 +965,13 @@
       <c r="F10">
         <v>-101.601</v>
       </c>
-      <c r="G10" s="4">
-        <v>128.259606930252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>128.3140564897644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -893,8 +979,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
+      <c r="D11" t="s">
+        <v>53</v>
       </c>
       <c r="E11">
         <v>43.021000000000001</v>
@@ -902,13 +988,13 @@
       <c r="F11">
         <v>-102.518</v>
       </c>
-      <c r="G11" s="4">
-        <v>129.56952994696701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>129.6643847777365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -916,8 +1002,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
+      <c r="D12" t="s">
+        <v>54</v>
       </c>
       <c r="E12">
         <v>42.837000000000003</v>
@@ -925,11 +1011,11 @@
       <c r="F12">
         <v>-103.098</v>
       </c>
-      <c r="G12" s="4">
-        <v>137.845928181538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>137.9287007506741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -939,7 +1025,7 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13">
@@ -948,13 +1034,13 @@
       <c r="F13">
         <v>-104.95</v>
       </c>
-      <c r="G13" s="4">
-        <v>140.74316527471001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>140.67735210755981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -962,8 +1048,8 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
       <c r="E14">
         <v>45.031999999999996</v>
@@ -971,13 +1057,13 @@
       <c r="F14">
         <v>-102.01900000000001</v>
       </c>
-      <c r="G14" s="4">
-        <v>142.08000880628899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>142.05525337765619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -985,8 +1071,8 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
+      <c r="D15" t="s">
+        <v>56</v>
       </c>
       <c r="E15">
         <v>42.805999999999997</v>
@@ -994,11 +1080,11 @@
       <c r="F15">
         <v>-102.175</v>
       </c>
-      <c r="G15" s="4">
-        <v>163.745344265017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>163.84109268787159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1008,7 +1094,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16">
@@ -1017,13 +1103,13 @@
       <c r="F16">
         <v>-103.54600000000001</v>
       </c>
-      <c r="G16" s="4">
-        <v>172.20643453350701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>172.11964229673859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1031,8 +1117,8 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
+      <c r="D17" t="s">
+        <v>57</v>
       </c>
       <c r="E17">
         <v>44.338999999999999</v>
@@ -1040,13 +1126,13 @@
       <c r="F17">
         <v>-105.542</v>
       </c>
-      <c r="G17" s="4">
-        <v>188.51267235667501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>188.4463325816937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1054,22 +1140,22 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
+      <c r="D18" t="s">
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>46.017000000000003</v>
+        <v>46.014000000000003</v>
       </c>
       <c r="F18">
-        <v>-102.65</v>
-      </c>
-      <c r="G18" s="4">
-        <v>220.39859088188999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>-102.655</v>
+      </c>
+      <c r="G18">
+        <v>219.9266419672897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1077,8 +1163,8 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
+      <c r="D19" t="s">
+        <v>44</v>
       </c>
       <c r="E19">
         <v>45.933</v>
@@ -1086,13 +1172,13 @@
       <c r="F19">
         <v>-102.167</v>
       </c>
-      <c r="G19" s="4">
-        <v>222.238034808328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>222.18330501652889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1100,8 +1186,8 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
+      <c r="D20" t="s">
+        <v>59</v>
       </c>
       <c r="E20">
         <v>45.918999999999997</v>
@@ -1109,13 +1195,13 @@
       <c r="F20">
         <v>-102.10599999999999</v>
       </c>
-      <c r="G20" s="4">
-        <v>222.613286981622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>222.5603248457729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1123,8 +1209,8 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
+      <c r="D21" t="s">
+        <v>60</v>
       </c>
       <c r="E21">
         <v>42.795999999999999</v>
@@ -1132,13 +1218,13 @@
       <c r="F21">
         <v>-105.38</v>
       </c>
-      <c r="G21" s="4">
-        <v>225.856416908353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>225.86355147601409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1146,8 +1232,8 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
+      <c r="D22" t="s">
+        <v>61</v>
       </c>
       <c r="E22">
         <v>42.05</v>
@@ -1155,11 +1241,11 @@
       <c r="F22">
         <v>-102.8</v>
       </c>
-      <c r="G22" s="4">
-        <v>227.482904000014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>227.56944345410579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1169,7 +1255,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
       <c r="E23">
@@ -1178,82 +1264,82 @@
       <c r="F23">
         <v>-105.383</v>
       </c>
-      <c r="G23" s="4">
-        <v>229.34578734732301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>229.35449555827219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>46.165500000000002</v>
+      </c>
+      <c r="F24">
+        <v>-103.3</v>
+      </c>
+      <c r="G24">
+        <v>232.57826975850921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
         <v>42.433</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>-105.033</v>
       </c>
-      <c r="G24" s="4">
-        <v>234.931316989593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G25">
+        <v>234.958321162521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25">
-        <v>44.381</v>
-      </c>
-      <c r="F25">
-        <v>-100.286</v>
-      </c>
-      <c r="G25" s="4">
-        <v>235.13106135770599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>44.381</v>
+      </c>
+      <c r="F26">
+        <v>-100.286</v>
+      </c>
+      <c r="G26">
+        <v>235.17103910391759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>39</v>
-      </c>
-      <c r="E26">
-        <v>46.165500000000002</v>
-      </c>
-      <c r="F26">
-        <v>-103.3</v>
-      </c>
-      <c r="G26" s="4">
-        <v>235.57785564806699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1261,8 +1347,8 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
+      <c r="D27" t="s">
+        <v>64</v>
       </c>
       <c r="E27">
         <v>42.061</v>
@@ -1270,13 +1356,13 @@
       <c r="F27">
         <v>-104.158</v>
       </c>
-      <c r="G27" s="4">
-        <v>236.837322668903</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>236.8945391456204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1284,8 +1370,8 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
+      <c r="D28" t="s">
+        <v>38</v>
       </c>
       <c r="E28">
         <v>43.033000000000001</v>
@@ -1293,13 +1379,13 @@
       <c r="F28">
         <v>-100.617</v>
       </c>
-      <c r="G28" s="4">
-        <v>238.58488715181201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>238.6696483350994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1307,8 +1393,8 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>38</v>
+      <c r="D29" t="s">
+        <v>65</v>
       </c>
       <c r="E29">
         <v>41.871000000000002</v>
@@ -1316,13 +1402,13 @@
       <c r="F29">
         <v>-103.593</v>
       </c>
-      <c r="G29" s="4">
-        <v>247.000180903119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>247.07206353589669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -1330,8 +1416,8 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>56</v>
+      <c r="D30" t="s">
+        <v>66</v>
       </c>
       <c r="E30">
         <v>42.878</v>
@@ -1339,31 +1425,399 @@
       <c r="F30">
         <v>-100.55</v>
       </c>
-      <c r="G30" s="4">
-        <v>252.207140948887</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>252.2939738268428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <v>41.1556</v>
+      </c>
+      <c r="F31">
+        <v>-104.81</v>
+      </c>
+      <c r="G31">
+        <v>350.10860643832888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>46.7727</v>
+      </c>
+      <c r="F32">
+        <v>-100.746</v>
+      </c>
+      <c r="G32">
+        <v>356.13651415716993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>41.126199999999997</v>
+      </c>
+      <c r="F33">
+        <v>-100.684</v>
+      </c>
+      <c r="G33">
+        <v>387.42877367270131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34">
+        <v>45.4467</v>
+      </c>
+      <c r="F34">
+        <v>-98.422399999999996</v>
+      </c>
+      <c r="G34">
+        <v>407.2835821076373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35">
+        <v>43.0642</v>
+      </c>
+      <c r="F35">
+        <v>-108.46</v>
+      </c>
+      <c r="G35">
+        <v>437.82235791428252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>45.7502</v>
+      </c>
+      <c r="F36">
+        <v>-108.57</v>
+      </c>
+      <c r="G36">
+        <v>461.48398607652422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>39.861699999999999</v>
+      </c>
+      <c r="F37">
+        <v>-104.673</v>
+      </c>
+      <c r="G37">
+        <v>483.89787803782338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38">
+        <v>39.991999999999997</v>
+      </c>
+      <c r="F38">
+        <v>-105.261</v>
+      </c>
+      <c r="G38">
+        <v>484.62654498579639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <v>43.582000000000001</v>
+      </c>
+      <c r="F39">
+        <v>-96.741900000000001</v>
+      </c>
+      <c r="G39">
+        <v>521.33382524072977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>48.212400000000002</v>
+      </c>
+      <c r="F40">
+        <v>-106.61499999999999</v>
+      </c>
+      <c r="G40">
+        <v>529.60258153152961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <v>39.370699999999999</v>
+      </c>
+      <c r="F41">
+        <v>-101.699</v>
+      </c>
+      <c r="G41">
+        <v>537.81299158903198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42">
+        <v>40.647500000000001</v>
+      </c>
+      <c r="F42">
+        <v>-98.383700000000005</v>
+      </c>
+      <c r="G42">
+        <v>549.60430011219228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>48.667499999999997</v>
+      </c>
+      <c r="F43">
+        <v>-98.834400000000002</v>
+      </c>
+      <c r="G43">
+        <v>610.75548649454925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44">
+        <v>47.921900000000001</v>
+      </c>
+      <c r="F44">
+        <v>-97.098100000000002</v>
+      </c>
+      <c r="G44">
+        <v>636.5233353769745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31">
-        <v>48.666699999999999</v>
-      </c>
-      <c r="F31">
-        <v>-98.834999999999994</v>
-      </c>
-      <c r="G31" s="4">
-        <v>610.69674570044003</v>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45">
+        <v>41.319699999999997</v>
+      </c>
+      <c r="F45">
+        <v>-96.367000000000004</v>
+      </c>
+      <c r="G45">
+        <v>637.10022550210772</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46">
+        <v>39.122399999999999</v>
+      </c>
+      <c r="F46">
+        <v>-108.527</v>
+      </c>
+      <c r="G46">
+        <v>706.05970680141979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47">
+        <v>39.068800000000003</v>
+      </c>
+      <c r="F47">
+        <v>-95.622399999999999</v>
+      </c>
+      <c r="G47">
+        <v>840.71703075227481</v>
       </c>
     </row>
   </sheetData>
